--- a/excel/test2.xlsx
+++ b/excel/test2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\programmation\python\ranked_notes\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0A6E2-C4E2-4B66-BA06-132603C95FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71841F8-6628-4F58-8F66-4839710BAA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 5" sheetId="5" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
